--- a/Stock History.xlsx
+++ b/Stock History.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Excel Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwwmu\Documents\Excel Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330F9D67-1238-47E7-84E7-83615B2D0A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54ABEB3-0BB6-402B-A246-B5D2A3C4420E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EA1592A0-4DC3-4830-A58A-B55A777E3D96}"/>
   </bookViews>
@@ -50,7 +50,7 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="62">
+  <futureMetadata name="XLRICHVALUE" count="32">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
@@ -272,216 +272,6 @@
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="51"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="52"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="53"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="54"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="55"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="56"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="57"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="58"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="59"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="60"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="61"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="62"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="63"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="64"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="65"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="66"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="67"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="68"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="69"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="70"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="71"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="72"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="73"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="74"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="75"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="76"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="77"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="78"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="79"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="80"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="81"/>
         </ext>
       </extLst>
     </bk>
@@ -491,7 +281,7 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="62">
+  <valueMetadata count="32">
     <bk>
       <rc t="2" v="0"/>
     </bk>
@@ -587,96 +377,6 @@
     </bk>
     <bk>
       <rc t="2" v="31"/>
-    </bk>
-    <bk>
-      <rc t="2" v="32"/>
-    </bk>
-    <bk>
-      <rc t="2" v="33"/>
-    </bk>
-    <bk>
-      <rc t="2" v="34"/>
-    </bk>
-    <bk>
-      <rc t="2" v="35"/>
-    </bk>
-    <bk>
-      <rc t="2" v="36"/>
-    </bk>
-    <bk>
-      <rc t="2" v="37"/>
-    </bk>
-    <bk>
-      <rc t="2" v="38"/>
-    </bk>
-    <bk>
-      <rc t="2" v="39"/>
-    </bk>
-    <bk>
-      <rc t="2" v="40"/>
-    </bk>
-    <bk>
-      <rc t="2" v="41"/>
-    </bk>
-    <bk>
-      <rc t="2" v="42"/>
-    </bk>
-    <bk>
-      <rc t="2" v="43"/>
-    </bk>
-    <bk>
-      <rc t="2" v="44"/>
-    </bk>
-    <bk>
-      <rc t="2" v="45"/>
-    </bk>
-    <bk>
-      <rc t="2" v="46"/>
-    </bk>
-    <bk>
-      <rc t="2" v="47"/>
-    </bk>
-    <bk>
-      <rc t="2" v="48"/>
-    </bk>
-    <bk>
-      <rc t="2" v="49"/>
-    </bk>
-    <bk>
-      <rc t="2" v="50"/>
-    </bk>
-    <bk>
-      <rc t="2" v="51"/>
-    </bk>
-    <bk>
-      <rc t="2" v="52"/>
-    </bk>
-    <bk>
-      <rc t="2" v="53"/>
-    </bk>
-    <bk>
-      <rc t="2" v="54"/>
-    </bk>
-    <bk>
-      <rc t="2" v="55"/>
-    </bk>
-    <bk>
-      <rc t="2" v="56"/>
-    </bk>
-    <bk>
-      <rc t="2" v="57"/>
-    </bk>
-    <bk>
-      <rc t="2" v="58"/>
-    </bk>
-    <bk>
-      <rc t="2" v="59"/>
-    </bk>
-    <bk>
-      <rc t="2" v="60"/>
-    </bk>
-    <bk>
-      <rc t="2" v="61"/>
     </bk>
   </valueMetadata>
 </metadata>
@@ -739,10 +439,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1030,9 +730,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,39 +743,40 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,7 +804,9 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{576C8584-706A-4689-B45B-8FAC2B048C98}"/>
+  </tableStyles>
   <colors>
     <mruColors>
       <color rgb="FFFFFFFF"/>
@@ -1234,7 +934,7 @@
 
 <file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
 <arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="4">
-  <a r="1" c="16">
+  <a r="1" c="20">
     <v t="i">0</v>
     <v t="i">3</v>
     <v t="i">4</v>
@@ -1251,8 +951,12 @@
     <v t="i">19</v>
     <v t="i">20</v>
     <v t="i">21</v>
+    <v t="i">25</v>
+    <v t="i">26</v>
+    <v t="i">27</v>
+    <v t="i">28</v>
   </a>
-  <a r="1" c="16">
+  <a r="1" c="20">
     <v>191.24</v>
     <v>189.43</v>
     <v>193.42</v>
@@ -1269,6 +973,10 @@
     <v>194.83</v>
     <v>194.68</v>
     <v>193.6</v>
+    <v>193.05</v>
+    <v>193.15</v>
+    <v>193.58</v>
+    <v>192.53</v>
   </a>
   <a r="1" c="12">
     <v t="i">0</v>
@@ -1302,7 +1010,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="84">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="54">
   <rv s="0">
     <v>https://www.bing.com/financeapi/forcetrigger?t=a1mou2&amp;q=XNAS%3aAAPL&amp;form=skydnc</v>
     <v>Learn more on Bing</v>
@@ -1319,39 +1027,36 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>199.62</v>
-    <v>124.17</v>
-    <v>1.2924</v>
-    <v>-1.08</v>
-    <v>-1.043E-4</v>
-    <v>-5.548E-3</v>
-    <v>-2.0199999999999999E-2</v>
+    <v>237.49</v>
+    <v>164.07499999999999</v>
+    <v>1.2343</v>
+    <v>2.5499999999999998</v>
+    <v>1.1025E-2</v>
     <v>USD</v>
-    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. The Company's product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. The Company's products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, iPad Pro, iPad Air, iPad, iPad mini, Apple Watch Series 9, AirPods, AirPods Pro, AirPods Max and HomePod.</v>
+    <v>Apple Inc. designs, manufactures and markets smartphones, personal computers, tablets, wearables and accessories, and sells a variety of related services. Its product categories include iPhone, Mac, iPad, and Wearables, Home and Accessories. Its software platforms include iOS, iPadOS, macOS, watchOS, and tvOS. Its services include advertising, AppleCare, cloud services, digital content and payment services. It operates various platforms, including the App Store, that allow customers to discover and download applications and digital content, such as books, music, video, games and podcasts. It also offers digital content through subscription-based services, including Apple Arcade, Apple Fitness+, Apple Music, Apple News+ and Apple TV+. Its products include iPhone 15 Pro, iPhone 15, iPhone 14, iPhone 13, MacBook Air, MacBook Pro, iMac, Mac mini, Mac Studio, Mac Pro, and others. It also provides DarwinAI, which specializes in visual quality inspection using its Explainable AI platform.</v>
     <v>161000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Apple Park Way, CUPERTINO, CA, 95014 US</v>
-    <v>195.41</v>
+    <v>237.49</v>
     <v>Computers, Phones &amp; Household Electronics</v>
     <v>Stock</v>
-    <v>45283.041414467189</v>
+    <v>45580.999977256251</v>
     <v>0</v>
-    <v>192.97</v>
-    <v>3011012400000</v>
+    <v>232.37</v>
+    <v>3555488139000</v>
     <v>APPLE INC.</v>
     <v>APPLE INC.</v>
-    <v>195.18</v>
-    <v>31.7376</v>
-    <v>194.68</v>
-    <v>193.6</v>
-    <v>193.57980000000001</v>
-    <v>15552750000</v>
+    <v>233.61</v>
+    <v>35.604900000000001</v>
+    <v>231.3</v>
+    <v>233.85</v>
+    <v>15204140000</v>
     <v>AAPL</v>
     <v>APPLE INC. (XNAS:AAPL)</v>
-    <v>37149570</v>
-    <v>51871396</v>
+    <v>41442</v>
+    <v>54338983</v>
     <v>1977</v>
   </rv>
   <rv s="2">
@@ -1372,40 +1077,37 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>143.25</v>
-    <v>85.57</v>
-    <v>1.0564</v>
-    <v>0.92</v>
-    <v>1.892E-3</v>
-    <v>6.4880000000000007E-3</v>
-    <v>0.27</v>
+    <v>4</v>
+    <v>193.31</v>
+    <v>121.46</v>
+    <v>1.0374000000000001</v>
+    <v>0.55000000000000004</v>
+    <v>3.3059999999999999E-3</v>
     <v>USD</v>
-    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, hardware, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. The Other Bets segment includes earlier stage technologies that are further afield from its core Google business, and it includes the sale of health technology and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides technology in cybersecurity; data, analytics, artificial intelligence (AI), machine learning and infrastructure. The Company's Google Workspace's secure communication and collaboration tools, which include apps, such as Gmail, Docs, Drive, Calendar, Meet, and others.</v>
-    <v>182381</v>
+    <v>Alphabet Inc. is a holding company. The Company's segments include Google Services, Google Cloud, and Other Bets. The Google Services segment includes products and services such as ads, Android, Chrome, devices, Google Maps, Google Play, Search, and YouTube. The Google Cloud segment includes infrastructure and platform services, collaboration tools, and other services for enterprise customers. Its Other Bets segment is engaged in the sale of healthcare-related services and Internet services. Its Google Cloud provides enterprise-ready cloud services, including Google Cloud Platform and Google Workspace. Google Cloud Platform provides access to solutions such as cybersecurity, databases, analytics, and artificial intelligence (AI) offerings, including its AI infrastructure, Vertex AI platform, and Duet AI for Google Cloud. Google Workspace includes cloud-based communication and collaboration tools for enterprises, such as Calendar, Gmail, Docs, Drive, Meet and other enterprise services.</v>
+    <v>179582</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1600 Amphitheatre Parkway, MOUNTAIN VIEW, CA, 94043 US</v>
-    <v>143.25</v>
+    <v>169.09</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45283.041522500003</v>
+    <v>45580.999285647653</v>
     <v>3</v>
-    <v>142.05500000000001</v>
-    <v>1765397000000</v>
+    <v>166.05</v>
+    <v>2038421000000</v>
     <v>ALPHABET INC.</v>
     <v>ALPHABET INC.</v>
-    <v>142.13</v>
-    <v>27.2135</v>
-    <v>141.80000000000001</v>
-    <v>142.72</v>
-    <v>142.99</v>
-    <v>12516000000</v>
+    <v>167.14</v>
+    <v>23.937200000000001</v>
+    <v>166.35</v>
+    <v>166.9</v>
+    <v>12310000000</v>
     <v>GOOG</v>
     <v>ALPHABET INC. (XNAS:GOOG)</v>
-    <v>18513524</v>
-    <v>24021724</v>
+    <v>15148</v>
+    <v>16442437</v>
     <v>2015</v>
   </rv>
   <rv s="2">
@@ -1427,39 +1129,36 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>155.63</v>
-    <v>81.430000000000007</v>
-    <v>1.1658999999999999</v>
-    <v>-0.42</v>
-    <v>-5.2139999999999999E-4</v>
-    <v>-2.7300000000000002E-3</v>
-    <v>-0.08</v>
+    <v>201.2</v>
+    <v>118.35</v>
+    <v>1.1460999999999999</v>
+    <v>0.15</v>
+    <v>7.9979999999999993E-4</v>
     <v>USD</v>
-    <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content that it purchased for resale and products offered by third-party sellers. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, and Ring, and it develops and produces media content. It also offers subscription services such as Amazon Prime, a membership program. Its segments include North America, International and Amazon Web Services (AWS). The AWS segment consists of global sales of compute, storage, database, and other services for start-ups, enterprises, government agencies, and academic institutions. It provides advertising services to sellers, vendors, publishers, authors, and others, through programs, such as sponsored advertisements, display, and video advertising. Customers access its offerings through websites, mobile applications, Alexa, devices, streaming, and physically visiting its stores.</v>
-    <v>1500000</v>
+    <v>Amazon.com, Inc. provides a range of products and services to customers. The products offered through its stores include merchandise and content it has purchased for resale and products offered by third-party sellers. The Company’s segments include North America, International and Amazon Web Services (AWS). It serves consumers through its online and physical stores and focuses on selection, price, and convenience. Customers access its offerings through its Websites, mobile apps, Alexa, devices, streaming, and physically visiting its stores. It manufactures and sells electronic devices, including Kindle, Fire tablet, Fire TV, Echo, Ring, Blink, and eero, and it develops and produces media content. It serves developers and enterprises of all sizes, including start-ups, government agencies, and academic institutions, through AWS, which offers a broad set of on-demand technology services, including compute, storage, database, analytics, and machine learning, and other services.</v>
+    <v>1532000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>410 Terry Ave N, SEATTLE, WA, 98109 US</v>
-    <v>154.35</v>
+    <v>188.41</v>
     <v>Diversified Retail</v>
     <v>Stock</v>
-    <v>45283.041615983595</v>
+    <v>45580.999812916409</v>
     <v>6</v>
-    <v>152.71</v>
-    <v>1585446882599</v>
+    <v>184.58</v>
+    <v>1969913533300</v>
     <v>AMAZON.COM, INC.</v>
     <v>AMAZON.COM, INC.</v>
-    <v>153.77000000000001</v>
-    <v>80.315700000000007</v>
-    <v>153.84</v>
-    <v>153.41999999999999</v>
-    <v>153.34</v>
-    <v>10334030000</v>
+    <v>187.63</v>
+    <v>44.969000000000001</v>
+    <v>187.54</v>
+    <v>187.69</v>
+    <v>10495570000</v>
     <v>AMZN</v>
     <v>AMAZON.COM, INC. (XNAS:AMZN)</v>
-    <v>29514093</v>
-    <v>50477611</v>
+    <v>36013</v>
+    <v>35543471</v>
     <v>1996</v>
   </rv>
   <rv s="2">
@@ -1480,41 +1179,38 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>299.29000000000002</v>
-    <v>101.81</v>
-    <v>2.3214999999999999</v>
-    <v>-1.96</v>
-    <v>1.188E-4</v>
-    <v>-7.7010000000000004E-3</v>
-    <v>0.03</v>
+    <v>4</v>
+    <v>271</v>
+    <v>138.80250000000001</v>
+    <v>2.2787000000000002</v>
+    <v>0.41</v>
+    <v>1.8709999999999998E-3</v>
     <v>USD</v>
-    <v>Tesla, Inc. designs, develops, manufactures, sells and leases fully electric vehicles and energy generation and storage systems, and offer services related to its products. The Company's automotive segment includes the design, development, manufacturing, sales, and leasing of electric vehicles as well as sales of automotive regulatory credits. Additionally, the automotive segment is also comprised of services and other, which includes non-warranty after-sales vehicle services, sales of used vehicles, retail merchandise, sales by its acquired subsidiaries to third party customers, and vehicle insurance. Its energy generation and storage segment include the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its automotive products include Model 3, Model Y, Model S and Model X. Powerwall and Megapack are its lithium-ion battery energy storage products.</v>
-    <v>127855</v>
+    <v>Tesla, Inc. designs, develops, manufactures, sells and leases high-performance fully electric vehicles and energy generation and storage systems, and offers services related to its products. The Company's segments include automotive, and energy generation and storage. The automotive segment includes the design, development, manufacturing, sales and leasing of high-performance fully electric vehicles, and sales of automotive regulatory credits. It also includes sales of used vehicles, non-warranty after-sales vehicle services, body shop and parts, paid supercharging, vehicle insurance and retail merchandise. Its consumer vehicles include the Model 3, Y, S, X and Cybertruck. The energy generation and storage segment includes the design, manufacture, installation, sales and leasing of solar energy generation and energy storage products and related services and sales of solar energy systems incentives. Its lithium-ion battery energy storage products include Powerwall and Megapack.</v>
+    <v>140473</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>1 Tesla Road, AUSTIN, TX, 78725 US</v>
-    <v>258.22000000000003</v>
+    <v>224.26</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45283.041653796092</v>
+    <v>45580.999999883592</v>
     <v>9</v>
-    <v>251.37</v>
-    <v>802804709340</v>
+    <v>217.12</v>
+    <v>700251765720</v>
     <v>TESLA, INC.</v>
     <v>TESLA, INC.</v>
-    <v>256.76</v>
-    <v>82.008899999999997</v>
-    <v>254.5</v>
-    <v>252.54</v>
-    <v>252.57</v>
-    <v>3178921000</v>
+    <v>220.01</v>
+    <v>61.721699999999998</v>
+    <v>219.16</v>
+    <v>219.57</v>
+    <v>3189196000</v>
     <v>TSLA</v>
     <v>TESLA, INC. (XNAS:TSLA)</v>
-    <v>93370094</v>
-    <v>120970219</v>
-    <v>2003</v>
+    <v>279519</v>
+    <v>80266018</v>
+    <v>2024</v>
   </rv>
   <rv s="2">
     <v>10</v>
@@ -1549,46 +1245,43 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>6</v>
+    <v>5</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
+    <v>7</v>
     <v>8</v>
+    <v>Finance</v>
     <v>9</v>
-    <v>Finance</v>
-    <v>5</v>
-    <v>633.89</v>
-    <v>318.60000000000002</v>
-    <v>1.3327</v>
-    <v>-1.39</v>
-    <v>-1.82E-3</v>
-    <v>-2.3159999999999999E-3</v>
-    <v>-1.0900000000000001</v>
+    <v>638.25</v>
+    <v>433.97</v>
+    <v>1.2890999999999999</v>
+    <v>-1.62</v>
+    <v>-3.179E-3</v>
     <v>USD</v>
-    <v>Adobe Inc. is a software company that offers a line of products and services used by professionals, communicators, businesses, and consumers for creating, managing, delivering, measuring, optimizing, engaging and transacting with content and experiences across various digital media formats. The Company’s segments include Digital Media, Digital Experience and Publishing and Advertising. Digital Media segment provides products, services and solutions that enable individuals, teams and enterprises to create, publish and promote their content anywhere. Digital Media segment is centered around Adobe Creative Cloud and Adobe Document Cloud. Digital Experience segment provides an integrated platform and set of applications and services through Adobe Experience Cloud that enable brands and businesses to create, manage, execute, measure, monetize and optimize customer experiences. The Publishing and Advertising segment consists of products and services that address diverse market opportunities.</v>
-    <v>29239</v>
+    <v>Adobe Inc is a United States-based global technology company. The Company's products, services and solutions are used around the world to imagine, create, manage, deliver, measure, optimize and engage with content across surfaces and fuel digital experiences. Its segments include digital media, digital experience, and publishing and advertising. The digital media segment is centered around Adobe Creative Cloud and Adobe Document Cloud, which include Adobe Express, Adobe Firefly, Photoshop and other products, offering a variety of tools for creative professionals, communicators and other consumers. The digital experience segment provides an integrated platform and set of products, services and solutions through Adobe Experience Cloud. The publishing and advertising segment contains legacy products and services. In addition, its Adobe GenStudio solution allows businesses to simplify their content supply chain process with generative artificial intelligence (AI) capabilities.</v>
+    <v>29945</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
-    <v>345 PARK AVE, SAN JOSE, CA, 95110-2704 US</v>
-    <v>601.86</v>
+    <v>345 Park Avenue, SAN JOSE, CA, 95110-2704 US</v>
+    <v>517.77200000000005</v>
     <v>15</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45283.04149782344</v>
+    <v>45580.999629640624</v>
     <v>16</v>
-    <v>596</v>
-    <v>272610875000</v>
+    <v>506.8</v>
+    <v>223634806000</v>
     <v>ADOBE INC.</v>
     <v>ADOBE INC.</v>
-    <v>600.79999999999995</v>
-    <v>50.775700000000001</v>
-    <v>600.14</v>
-    <v>598.75</v>
-    <v>597.66</v>
-    <v>455300000</v>
+    <v>513.82000000000005</v>
+    <v>42.902099999999997</v>
+    <v>509.65</v>
+    <v>508.03</v>
+    <v>440200000</v>
     <v>ADBE</v>
     <v>ADOBE INC. (XNAS:ADBE)</v>
-    <v>1660631</v>
-    <v>3384753</v>
+    <v>1367</v>
+    <v>3665452</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -1609,40 +1302,37 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>5</v>
-    <v>196.88</v>
-    <v>155.83000000000001</v>
-    <v>0.53569999999999995</v>
-    <v>0.71</v>
-    <v>-7.7530000000000003E-4</v>
-    <v>4.2520000000000006E-3</v>
-    <v>-0.13</v>
+    <v>4</v>
+    <v>183.41</v>
+    <v>158.03</v>
+    <v>0.54069999999999996</v>
+    <v>-0.2</v>
+    <v>-1.1360000000000001E-3</v>
     <v>USD</v>
     <v>PepsiCo, Inc. is a beverage and convenient food company. The Company's segments include Frito-Lay North America, which includes its food businesses in the United States and Canada; Quaker Foods North America, which includes its food businesses, such as cereal, rice, pasta and other branded food, in the United States and Canada; PepsiCo Beverages North America, which includes its beverage businesses in the United States and Canada; Latin America, which includes its beverage and convenient food businesses in Latin America; Europe, which includes its beverage and convenient food businesses in Europe; Africa, Middle East and South Asia (AMESA), which includes all of its beverage and convenient food businesses in Africa, the Middle East and South Asia; and Asia Pacific, Australia and New Zealand and China Region (APAC), which includes all of its beverage and convenient food businesses in Asia Pacific, Australia and New Zealand, and China region. Its brands include Lays, Doritos and Cheetos.</v>
-    <v>315000</v>
+    <v>318000</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>700 ANDERSON HILL RD, PURCHASE, NY, 10577 US</v>
-    <v>168.17</v>
+    <v>177.39</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45283.032976585157</v>
+    <v>45580.996355346877</v>
     <v>19</v>
-    <v>166.86</v>
-    <v>230537195520</v>
+    <v>175.12</v>
+    <v>241332865100</v>
     <v>PEPSICO, INC.</v>
     <v>PEPSICO, INC.</v>
-    <v>167.36</v>
-    <v>27.823599999999999</v>
-    <v>166.97</v>
-    <v>167.68</v>
-    <v>167.55</v>
-    <v>1374864000</v>
+    <v>176.35499999999999</v>
+    <v>25.922799999999999</v>
+    <v>176.1</v>
+    <v>175.9</v>
+    <v>1371989000</v>
     <v>PEP</v>
     <v>PEPSICO, INC. (XNAS:PEP)</v>
-    <v>3030355</v>
-    <v>5454304</v>
+    <v>732</v>
+    <v>5757491</v>
     <v>1986</v>
   </rv>
   <rv s="2">
@@ -1664,39 +1354,36 @@
     <v>3</v>
     <v>Finance</v>
     <v>4</v>
-    <v>64.989999999999995</v>
-    <v>51.55</v>
-    <v>0.57550000000000001</v>
-    <v>0.34</v>
-    <v>-1.1999999999999999E-3</v>
-    <v>5.8630000000000002E-3</v>
-    <v>-7.0000000000000007E-2</v>
+    <v>73.53</v>
+    <v>52.84</v>
+    <v>0.60750000000000004</v>
+    <v>0</v>
+    <v>0</v>
     <v>USD</v>
-    <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa; Latin America; North America; Asia Pacific; Global Ventures; and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Coca-Cola; sparkling flavors; water, sports, coffee and tea; juice, dairy and plant-based beverages; and emerging beverages. It owns and markets six nonalcoholic sparkling soft drink brands, such as Coca-Cola, Sprite, Fanta, Diet Coke /Coca-Cola Light, and Coca-Cola Zero Sugar. Its water, sports, coffee and tea brands include quarius, Ayataka, BODYARMOR, Ciel, Costa, dogadan, Dasani, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Powerade and others. The Company’s juice, dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply. The Company products are available to consumers in more than 200 countries.</v>
-    <v>82500</v>
+    <v>The Coca-Cola Company is a beverage company. The Company's segments include Europe, Middle East and Africa, Latin America, North America, Asia Pacific, Global Ventures and Bottling Investments. It owns or licenses and markets various beverage brands, which are grouped into categories, such as Trademark Coca-Cola; sparkling flavors; water, sports, coffee and tea; juice, value-added dairy and plant-based beverages and emerging beverages. It owns and markets various nonalcoholic sparkling soft drink brands, including Coca-Cola, Diet Coke/Coca-Cola Light, Coca-Cola Zero Sugar, Fanta, Fresca, Schweppes, Sprite and Thums Up. Its water, sports, coffee and tea brands include Aquarius, Ayataka, BODYARMOR, Ciel, Costa, Dasani, dogadan, FUZE TEA, Georgia, glaceau smartwater, glaceau vitaminwater, Gold Peak, Ice Dew, I LOHAS, Powerade and Topo Chico. Its juice, value-added dairy and plant-based beverages brands include AdeS, Del Valle, fairlife, innocent, Minute Maid, Minute Maid Pulpy and Simply.</v>
+    <v>79100</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1 Coca Cola Plz NW, ATLANTA, GA, 30313-2420 US</v>
-    <v>58.46</v>
+    <v>71.209999999999994</v>
     <v>Beverages</v>
     <v>Stock</v>
-    <v>45282.98247583281</v>
+    <v>45580.999968772659</v>
     <v>22</v>
-    <v>58.02</v>
-    <v>252141500000</v>
+    <v>70.16</v>
+    <v>303156115120</v>
     <v>THE COCA-COLA COMPANY</v>
     <v>THE COCA-COLA COMPANY</v>
-    <v>58.12</v>
-    <v>23.375599999999999</v>
-    <v>57.99</v>
-    <v>58.33</v>
-    <v>58.25</v>
-    <v>4323414000</v>
+    <v>70.459999999999994</v>
+    <v>28.593499999999999</v>
+    <v>70.34</v>
+    <v>70.34</v>
+    <v>4309868000</v>
     <v>KO</v>
     <v>THE COCA-COLA COMPANY (XNYS:KO)</v>
-    <v>9029440</v>
-    <v>16377010</v>
+    <v>3357</v>
+    <v>13111087</v>
     <v>1919</v>
   </rv>
   <rv s="2">
@@ -1717,276 +1404,155 @@
     <v>2</v>
     <v>3</v>
     <v>Finance</v>
-    <v>4</v>
-    <v>131.31</v>
-    <v>88.66</v>
-    <v>1.1211</v>
-    <v>-14.5</v>
-    <v>-8.3299999999999997E-4</v>
-    <v>-0.118338</v>
-    <v>-0.09</v>
+    <v>9</v>
+    <v>123.3916</v>
+    <v>70.750200000000007</v>
+    <v>1.0174000000000001</v>
+    <v>0.52</v>
+    <v>6.3730000000000002E-3</v>
     <v>USD</v>
     <v>NIKE, Inc. is engaged in the designing, marketing and distributing of athletic footwear, apparel, equipment and accessories and services for sports and fitness activities. The Company's operating segments include North America; Europe, Middle East &amp; Africa (EMEA); Greater China; and Asia Pacific &amp; Latin America (APLA). It sells a line of equipment and accessories under the NIKE Brand name, including bags, socks, sport balls, eyewear, timepieces, digital devices, bats, gloves, protective equipment and other equipment designed for sports activities. It also designs products specifically for the Jordan Brand and Converse. The Jordan Brand designs, distributes and licenses athletic and casual footwear, apparel and accessories predominantly focused on basketball performance and culture using the Jumpman trademark. The Company also designs, distributes and licenses casual sneakers, apparel and accessories under the Chuck Taylor, All Star, One Star, Star Chevron and Jack Purcell trademarks.</v>
-    <v>83700</v>
+    <v>79400</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>One Bowerman Dr, BEAVERTON, OR, 97005-6453 US</v>
-    <v>110.8</v>
+    <v>82.72</v>
     <v>Textiles &amp; Apparel</v>
     <v>Stock</v>
-    <v>45283.041628807812</v>
+    <v>45580.999658205466</v>
     <v>25</v>
-    <v>107.45</v>
-    <v>164411937300</v>
+    <v>81.05</v>
+    <v>122235291520</v>
     <v>NIKE, INC.</v>
     <v>NIKE, INC.</v>
-    <v>108.26</v>
-    <v>35.775300000000001</v>
-    <v>122.53</v>
-    <v>108.03</v>
-    <v>107.95</v>
-    <v>1521910000</v>
+    <v>81.05</v>
+    <v>23.552700000000002</v>
+    <v>81.599999999999994</v>
+    <v>82.12</v>
+    <v>1488496000</v>
     <v>NKE</v>
     <v>NIKE, INC. (XNYS:NKE)</v>
-    <v>46666188</v>
-    <v>7828190</v>
+    <v>10790</v>
+    <v>14121975</v>
     <v>1969</v>
   </rv>
   <rv s="2">
     <v>26</v>
   </rv>
   <rv s="6">
+    <v>1</v>
+    <v>8</v>
+    <v>20</v>
+    <v>1</v>
+  </rv>
+  <rv s="7">
+    <fb>44927</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>17.489999999999998</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>44958</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>16</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>44986</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>13.84</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>45017</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>14.06</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>45047</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>13.56</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>45078</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>13.74</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>45108</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>13.77</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>45139</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>13.49</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>45170</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>12.97</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>45200</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
+    <fb>12.55</fb>
+    <v>12</v>
+  </rv>
+  <rv s="7">
+    <fb>45231</fb>
+    <v>11</v>
+  </rv>
+  <rv s="7">
     <fb>45261</fb>
     <v>11</v>
   </rv>
-  <rv s="6">
-    <fb>191.24</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45264</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>189.43</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45265</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>193.42</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45266</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>192.32</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45267</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>194.27</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45268</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>195.71</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45271</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>193.18</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45272</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>194.71</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45273</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>197.96</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45274</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>198.11</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45275</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>197.57</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45278</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>195.89</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45279</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>196.94</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45280</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>194.83</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45281</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>194.68</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45282</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>193.6</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>44927</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>17.489999999999998</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>44958</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>16</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>44986</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>13.84</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45017</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>14.06</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45047</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>13.56</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45078</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>13.74</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45108</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>13.77</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45139</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>13.49</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45170</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>12.97</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45200</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
-    <fb>12.55</fb>
-    <v>12</v>
-  </rv>
-  <rv s="6">
-    <fb>45231</fb>
-    <v>11</v>
-  </rv>
-  <rv s="6">
+  <rv s="7">
     <fb>13.9</fb>
     <v>12</v>
   </rv>
-  <rv s="7">
+  <rv s="8">
     <v>13</v>
     <v>AAPL</v>
     <v>Daily</v>
     <v>45261</v>
-    <v>45283</v>
+    <v>45291</v>
     <v>0</v>
     <v>1</v>
-    <v>638388000000000000,638389542362160516,0</v>
+    <v>638394048000000000,638646731970806320,0</v>
     <v>0</v>
     <v>a1mou2</v>
     <v>XNAS:AAPL</v>
     <v>1</v>
   </rv>
-  <rv s="7">
+  <rv s="8">
     <v>13</v>
     <v>FFC</v>
     <v>Monthly</v>
@@ -1994,7 +1560,7 @@
     <v>45291</v>
     <v>0</v>
     <v>1</v>
-    <v>638388000000000000,638389543875255490,0</v>
+    <v>638394048000000000,638646731970636271,0</v>
     <v>2</v>
     <v>a1ssyc</v>
     <v>XNYS:FFC</v>
@@ -2004,7 +1570,7 @@
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="8">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="9">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -2025,9 +1591,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2048,7 +1612,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2087,9 +1650,7 @@
     <k n="52 week low"/>
     <k n="Beta"/>
     <k n="Change"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2111,13 +1672,18 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
     <k n="Volume"/>
     <k n="Volume average"/>
     <k n="Year incorporated"/>
+  </s>
+  <s t="_error">
+    <k n="colOffset" t="i"/>
+    <k n="errorType" t="i"/>
+    <k n="rwOffset" t="i"/>
+    <k n="subType" t="i"/>
   </s>
   <s t="_formattednumber">
     <k n="_Format" t="spb"/>
@@ -2142,7 +1708,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="2">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2153,16 +1719,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2189,7 +1752,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="46">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2200,16 +1763,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2276,29 +1836,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Real-Time Nasdaq Last Sale</v>
-      <v>from close</v>
-      <v>from close</v>
-    </spb>
-    <spb s="4">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
     <spb s="0">
       <v>1</v>
@@ -2310,7 +1854,7 @@
       <v>0</v>
     </spb>
     <spb s="6">
-      <v>7</v>
+      <v>6</v>
       <v>1</v>
       <v>1</v>
       <v>1</v>
@@ -2338,9 +1882,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>Delayed 15 minutes</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
     </spb>
     <spb s="8">
       <v>Powered by Refinitiv</v>
@@ -2398,9 +1946,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2408,9 +1953,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
   <s>
     <k n="ShowInDotNotation" t="b"/>
@@ -2445,9 +1987,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="name" t="s"/>
@@ -2528,9 +2067,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2568,7 +2107,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2674,7 +2213,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2816,7 +2355,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2827,28 +2366,28 @@
   <dimension ref="C4:K60"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.77734375" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
     <col min="8" max="8" width="20.21875" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="E4" s="16" t="s">
+    <row r="4" spans="4:11" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E4" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2880,24 +2419,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="E10" t="str" cm="1">
-        <f t="array" ref="E10">_FV(D10,"Official name",TRUE)</f>
+        <f t="array" aca="1" ref="E10" ca="1">_FV(D10,"Official name",TRUE)</f>
         <v>APPLE INC.</v>
       </c>
       <c r="F10" s="2" cm="1">
-        <f t="array" ref="F10">_FV(D10,"Shares outstanding",TRUE)</f>
-        <v>15552750000</v>
+        <f t="array" aca="1" ref="F10" ca="1">_FV(D10,"Shares outstanding",TRUE)</f>
+        <v>15204140000</v>
       </c>
       <c r="G10" t="str" cm="1">
-        <f t="array" ref="G10">_FV(D10,"Industry")</f>
+        <f t="array" aca="1" ref="G10" ca="1">_FV(D10,"Industry")</f>
         <v>Computers, Phones &amp; Household Electronics</v>
       </c>
       <c r="H10" s="3" cm="1">
-        <f t="array" ref="H10">_FV(D10,"Year incorporated",TRUE)</f>
+        <f t="array" aca="1" ref="H10" ca="1">_FV(D10,"Year incorporated",TRUE)</f>
         <v>1977</v>
       </c>
       <c r="I10" s="4" cm="1">
-        <f t="array" ref="I10">_FV(D10,"Price")</f>
-        <v>193.6</v>
+        <f t="array" aca="1" ref="I10" ca="1">_FV(D10,"Price")</f>
+        <v>233.85</v>
       </c>
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.3">
@@ -2905,24 +2444,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="E11" t="str" cm="1">
-        <f t="array" ref="E11">_FV(D11,"Official name",TRUE)</f>
+        <f t="array" aca="1" ref="E11" ca="1">_FV(D11,"Official name",TRUE)</f>
         <v>ALPHABET INC.</v>
       </c>
       <c r="F11" s="2" cm="1">
-        <f t="array" ref="F11">_FV(D11,"Shares outstanding",TRUE)</f>
-        <v>12516000000</v>
+        <f t="array" aca="1" ref="F11" ca="1">_FV(D11,"Shares outstanding",TRUE)</f>
+        <v>12310000000</v>
       </c>
       <c r="G11" t="str" cm="1">
-        <f t="array" ref="G11">_FV(D11,"Industry")</f>
+        <f t="array" aca="1" ref="G11" ca="1">_FV(D11,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
       <c r="H11" s="3" cm="1">
-        <f t="array" ref="H11">_FV(D11,"Year incorporated",TRUE)</f>
+        <f t="array" aca="1" ref="H11" ca="1">_FV(D11,"Year incorporated",TRUE)</f>
         <v>2015</v>
       </c>
       <c r="I11" s="4" cm="1">
-        <f t="array" ref="I11">_FV(D11,"Price")</f>
-        <v>142.72</v>
+        <f t="array" aca="1" ref="I11" ca="1">_FV(D11,"Price")</f>
+        <v>166.9</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.3">
@@ -2930,24 +2469,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="E12" t="str" cm="1">
-        <f t="array" ref="E12">_FV(D12,"Official name",TRUE)</f>
+        <f t="array" aca="1" ref="E12" ca="1">_FV(D12,"Official name",TRUE)</f>
         <v>AMAZON.COM, INC.</v>
       </c>
       <c r="F12" s="2" cm="1">
-        <f t="array" ref="F12">_FV(D12,"Shares outstanding",TRUE)</f>
-        <v>10334030000</v>
+        <f t="array" aca="1" ref="F12" ca="1">_FV(D12,"Shares outstanding",TRUE)</f>
+        <v>10495570000</v>
       </c>
       <c r="G12" t="str" cm="1">
-        <f t="array" ref="G12">_FV(D12,"Industry")</f>
+        <f t="array" aca="1" ref="G12" ca="1">_FV(D12,"Industry")</f>
         <v>Diversified Retail</v>
       </c>
       <c r="H12" s="3" cm="1">
-        <f t="array" ref="H12">_FV(D12,"Year incorporated",TRUE)</f>
+        <f t="array" aca="1" ref="H12" ca="1">_FV(D12,"Year incorporated",TRUE)</f>
         <v>1996</v>
       </c>
       <c r="I12" s="4" cm="1">
-        <f t="array" ref="I12">_FV(D12,"Price")</f>
-        <v>153.41999999999999</v>
+        <f t="array" aca="1" ref="I12" ca="1">_FV(D12,"Price")</f>
+        <v>187.69</v>
       </c>
     </row>
     <row r="13" spans="4:11" x14ac:dyDescent="0.3">
@@ -2955,24 +2494,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="E13" t="str" cm="1">
-        <f t="array" ref="E13">_FV(D13,"Official name",TRUE)</f>
+        <f t="array" aca="1" ref="E13" ca="1">_FV(D13,"Official name",TRUE)</f>
         <v>TESLA, INC.</v>
       </c>
       <c r="F13" s="2" cm="1">
-        <f t="array" ref="F13">_FV(D13,"Shares outstanding",TRUE)</f>
-        <v>3178921000</v>
+        <f t="array" aca="1" ref="F13" ca="1">_FV(D13,"Shares outstanding",TRUE)</f>
+        <v>3189196000</v>
       </c>
       <c r="G13" t="str" cm="1">
-        <f t="array" ref="G13">_FV(D13,"Industry")</f>
+        <f t="array" aca="1" ref="G13" ca="1">_FV(D13,"Industry")</f>
         <v>Automobiles &amp; Auto Parts</v>
       </c>
       <c r="H13" s="3" cm="1">
-        <f t="array" ref="H13">_FV(D13,"Year incorporated",TRUE)</f>
-        <v>2003</v>
+        <f t="array" aca="1" ref="H13" ca="1">_FV(D13,"Year incorporated",TRUE)</f>
+        <v>2024</v>
       </c>
       <c r="I13" s="4" cm="1">
-        <f t="array" ref="I13">_FV(D13,"Price")</f>
-        <v>252.54</v>
+        <f t="array" aca="1" ref="I13" ca="1">_FV(D13,"Price")</f>
+        <v>219.57</v>
       </c>
     </row>
     <row r="14" spans="4:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2980,46 +2519,46 @@
         <v>#VALUE!</v>
       </c>
       <c r="E14" s="5" t="str" cm="1">
-        <f t="array" ref="E14">_FV(D14,"Official name",TRUE)</f>
+        <f t="array" aca="1" ref="E14" ca="1">_FV(D14,"Official name",TRUE)</f>
         <v>ALPHABET INC.</v>
       </c>
       <c r="F14" s="6" cm="1">
-        <f t="array" ref="F14">_FV(D14,"Shares outstanding",TRUE)</f>
-        <v>12516000000</v>
+        <f t="array" aca="1" ref="F14" ca="1">_FV(D14,"Shares outstanding",TRUE)</f>
+        <v>12310000000</v>
       </c>
       <c r="G14" s="5" t="str" cm="1">
-        <f t="array" ref="G14">_FV(D14,"Industry")</f>
+        <f t="array" aca="1" ref="G14" ca="1">_FV(D14,"Industry")</f>
         <v>Software &amp; IT Services</v>
       </c>
       <c r="H14" s="7" cm="1">
-        <f t="array" ref="H14">_FV(D14,"Year incorporated",TRUE)</f>
+        <f t="array" aca="1" ref="H14" ca="1">_FV(D14,"Year incorporated",TRUE)</f>
         <v>2015</v>
       </c>
       <c r="I14" s="8" cm="1">
-        <f t="array" ref="I14">_FV(D14,"Price")</f>
-        <v>142.72</v>
+        <f t="array" aca="1" ref="I14" ca="1">_FV(D14,"Price")</f>
+        <v>166.9</v>
       </c>
     </row>
     <row r="17" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="3:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D20" t="e" vm="5">
@@ -3029,12 +2568,12 @@
         <v>150</v>
       </c>
       <c r="F20" s="4" cm="1">
-        <f t="array" ref="F20">_FV(D20,"Price")</f>
-        <v>598.75</v>
-      </c>
-      <c r="G20" s="15">
-        <f>F20-E20</f>
-        <v>448.75</v>
+        <f t="array" aca="1" ref="F20" ca="1">_FV(D20,"Price")</f>
+        <v>508.03</v>
+      </c>
+      <c r="G20" s="14">
+        <f ca="1">F20-E20</f>
+        <v>358.03</v>
       </c>
     </row>
     <row r="21" spans="3:7" x14ac:dyDescent="0.3">
@@ -3045,12 +2584,12 @@
         <v>200</v>
       </c>
       <c r="F21" s="4" cm="1">
-        <f t="array" ref="F21">_FV(D21,"Price")</f>
-        <v>193.6</v>
+        <f t="array" aca="1" ref="F21" ca="1">_FV(D21,"Price")</f>
+        <v>233.85</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" ref="G21:G24" si="0">F21-E21</f>
-        <v>-6.4000000000000057</v>
+        <f t="shared" ref="G21:G24" ca="1" si="0">F21-E21</f>
+        <v>33.849999999999994</v>
       </c>
     </row>
     <row r="22" spans="3:7" x14ac:dyDescent="0.3">
@@ -3061,12 +2600,12 @@
         <v>260</v>
       </c>
       <c r="F22" s="4" cm="1">
-        <f t="array" ref="F22">_FV(D22,"Price")</f>
-        <v>167.68</v>
+        <f t="array" aca="1" ref="F22" ca="1">_FV(D22,"Price")</f>
+        <v>175.9</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="0"/>
-        <v>-92.32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-84.1</v>
       </c>
     </row>
     <row r="23" spans="3:7" x14ac:dyDescent="0.3">
@@ -3077,12 +2616,12 @@
         <v>70</v>
       </c>
       <c r="F23" s="4" cm="1">
-        <f t="array" ref="F23">_FV(D23,"Price")</f>
-        <v>58.33</v>
+        <f t="array" aca="1" ref="F23" ca="1">_FV(D23,"Price")</f>
+        <v>70.34</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="0"/>
-        <v>-11.670000000000002</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34000000000000341</v>
       </c>
     </row>
     <row r="24" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -3093,461 +2632,359 @@
         <v>190</v>
       </c>
       <c r="F24" s="8" cm="1">
-        <f t="array" ref="F24">_FV(D24,"Price")</f>
-        <v>108.03</v>
+        <f t="array" aca="1" ref="F24" ca="1">_FV(D24,"Price")</f>
+        <v>82.12</v>
       </c>
       <c r="G24" s="8">
-        <f t="shared" si="0"/>
-        <v>-81.97</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>-107.88</v>
       </c>
     </row>
     <row r="28" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="G28" s="20"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="25">
+      <c r="C29" s="23">
         <v>1</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="25">
         <v>45261</v>
       </c>
-      <c r="F29" s="19" t="str" cm="1">
-        <f t="array" aca="1" ref="F29:G45" ca="1">_xlfn.STOCKHISTORY(D29,E29,E30,0)</f>
+      <c r="F29" s="17" t="e" cm="1" vm="9">
+        <f t="array" aca="1" ref="F29" ca="1">_xlfn.STOCKHISTORY(D29,E29,E30,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C30" s="27"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="16">
+        <v>45291</v>
+      </c>
+      <c r="F30" s="15"/>
+      <c r="G30" s="28"/>
+    </row>
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C31" s="27"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="28"/>
+    </row>
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C32" s="27"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C33" s="27"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="28"/>
+    </row>
+    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C34" s="27"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="28"/>
+    </row>
+    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C35" s="27"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="28"/>
+    </row>
+    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C36" s="27"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="28"/>
+    </row>
+    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C37" s="27"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="28"/>
+    </row>
+    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C38" s="27"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="28"/>
+    </row>
+    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C39" s="27"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="28"/>
+    </row>
+    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C40" s="27"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="28"/>
+    </row>
+    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C41" s="27"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C42" s="27"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C43" s="27"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="28"/>
+    </row>
+    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C44" s="27"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="28"/>
+    </row>
+    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C45" s="27"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="28"/>
+    </row>
+    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C46" s="27"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="28"/>
+    </row>
+    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C47" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47" s="33"/>
+    </row>
+    <row r="48" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="29">
+        <v>2</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="21">
+        <v>44927</v>
+      </c>
+      <c r="F48" s="19" t="str" cm="1">
+        <f t="array" aca="1" ref="F48:G60" ca="1">_xlfn.STOCKHISTORY(D48,E48,E49,2)</f>
         <v>Date</v>
       </c>
-      <c r="G29" s="28" t="str">
+      <c r="G48" s="30" t="str">
         <f ca="1"/>
         <v>Close</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C30" s="29"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="18">
+    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C49" s="27"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16">
         <v>45291</v>
       </c>
-      <c r="F30" s="17" vm="9">
+      <c r="F49" s="15" vm="10">
+        <f ca="1"/>
+        <v>44927</v>
+      </c>
+      <c r="G49" s="28" vm="11">
+        <f ca="1"/>
+        <v>17.489999999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C50" s="27"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15" vm="12">
+        <f ca="1"/>
+        <v>44958</v>
+      </c>
+      <c r="G50" s="28" vm="13">
+        <f ca="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C51" s="27"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15" vm="14">
+        <f ca="1"/>
+        <v>44986</v>
+      </c>
+      <c r="G51" s="28" vm="15">
+        <f ca="1"/>
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C52" s="27"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15" vm="16">
+        <f ca="1"/>
+        <v>45017</v>
+      </c>
+      <c r="G52" s="28" vm="17">
+        <f ca="1"/>
+        <v>14.06</v>
+      </c>
+    </row>
+    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C53" s="27"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15" vm="18">
+        <f ca="1"/>
+        <v>45047</v>
+      </c>
+      <c r="G53" s="28" vm="19">
+        <f ca="1"/>
+        <v>13.56</v>
+      </c>
+    </row>
+    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C54" s="27"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15" vm="20">
+        <f ca="1"/>
+        <v>45078</v>
+      </c>
+      <c r="G54" s="28" vm="21">
+        <f ca="1"/>
+        <v>13.74</v>
+      </c>
+    </row>
+    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C55" s="27"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15" vm="22">
+        <f ca="1"/>
+        <v>45108</v>
+      </c>
+      <c r="G55" s="28" vm="23">
+        <f ca="1"/>
+        <v>13.77</v>
+      </c>
+    </row>
+    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C56" s="27"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15" vm="24">
+        <f ca="1"/>
+        <v>45139</v>
+      </c>
+      <c r="G56" s="28" vm="25">
+        <f ca="1"/>
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C57" s="27"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15" vm="26">
+        <f ca="1"/>
+        <v>45170</v>
+      </c>
+      <c r="G57" s="28" vm="27">
+        <f ca="1"/>
+        <v>12.97</v>
+      </c>
+    </row>
+    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C58" s="27"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15" vm="28">
+        <f ca="1"/>
+        <v>45200</v>
+      </c>
+      <c r="G58" s="28" vm="29">
+        <f ca="1"/>
+        <v>12.55</v>
+      </c>
+    </row>
+    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C59" s="27"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15" vm="30">
+        <f ca="1"/>
+        <v>45231</v>
+      </c>
+      <c r="G59" s="28" vm="15">
+        <f ca="1"/>
+        <v>13.84</v>
+      </c>
+    </row>
+    <row r="60" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C60" s="31"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22" vm="31">
         <f ca="1"/>
         <v>45261</v>
       </c>
-      <c r="G30" s="30" vm="10">
-        <f ca="1"/>
-        <v>191.24</v>
-      </c>
-    </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C31" s="29"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17" vm="11">
-        <f ca="1"/>
-        <v>45264</v>
-      </c>
-      <c r="G31" s="30" vm="12">
-        <f ca="1"/>
-        <v>189.43</v>
-      </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C32" s="29"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17" vm="13">
-        <f ca="1"/>
-        <v>45265</v>
-      </c>
-      <c r="G32" s="30" vm="14">
-        <f ca="1"/>
-        <v>193.42</v>
-      </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C33" s="29"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17" vm="15">
-        <f ca="1"/>
-        <v>45266</v>
-      </c>
-      <c r="G33" s="30" vm="16">
-        <f ca="1"/>
-        <v>192.32</v>
-      </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C34" s="29"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17" vm="17">
-        <f ca="1"/>
-        <v>45267</v>
-      </c>
-      <c r="G34" s="30" vm="18">
-        <f ca="1"/>
-        <v>194.27</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C35" s="29"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17" vm="19">
-        <f ca="1"/>
-        <v>45268</v>
-      </c>
-      <c r="G35" s="30" vm="20">
-        <f ca="1"/>
-        <v>195.71</v>
-      </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C36" s="29"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17" vm="21">
-        <f ca="1"/>
-        <v>45271</v>
-      </c>
-      <c r="G36" s="30" vm="22">
-        <f ca="1"/>
-        <v>193.18</v>
-      </c>
-    </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C37" s="29"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="17" vm="23">
-        <f ca="1"/>
-        <v>45272</v>
-      </c>
-      <c r="G37" s="30" vm="24">
-        <f ca="1"/>
-        <v>194.71</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C38" s="29"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17" vm="25">
-        <f ca="1"/>
-        <v>45273</v>
-      </c>
-      <c r="G38" s="30" vm="26">
-        <f ca="1"/>
-        <v>197.96</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C39" s="29"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17" vm="27">
-        <f ca="1"/>
-        <v>45274</v>
-      </c>
-      <c r="G39" s="30" vm="28">
-        <f ca="1"/>
-        <v>198.11</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C40" s="29"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17" vm="29">
-        <f ca="1"/>
-        <v>45275</v>
-      </c>
-      <c r="G40" s="30" vm="30">
-        <f ca="1"/>
-        <v>197.57</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C41" s="29"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17" vm="31">
-        <f ca="1"/>
-        <v>45278</v>
-      </c>
-      <c r="G41" s="30" vm="32">
-        <f ca="1"/>
-        <v>195.89</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C42" s="29"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="17" vm="33">
-        <f ca="1"/>
-        <v>45279</v>
-      </c>
-      <c r="G42" s="30" vm="34">
-        <f ca="1"/>
-        <v>196.94</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C43" s="29"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17" vm="35">
-        <f ca="1"/>
-        <v>45280</v>
-      </c>
-      <c r="G43" s="30" vm="36">
-        <f ca="1"/>
-        <v>194.83</v>
-      </c>
-    </row>
-    <row r="44" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C44" s="29"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17" vm="37">
-        <f ca="1"/>
-        <v>45281</v>
-      </c>
-      <c r="G44" s="30" vm="38">
-        <f ca="1"/>
-        <v>194.68</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C45" s="29"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17" vm="39">
-        <f ca="1"/>
-        <v>45282</v>
-      </c>
-      <c r="G45" s="30" vm="40">
-        <f ca="1"/>
-        <v>193.6</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C46" s="29"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="30"/>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C47" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="35"/>
-    </row>
-    <row r="48" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C48" s="31">
-        <v>2</v>
-      </c>
-      <c r="D48" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="23">
-        <v>44927</v>
-      </c>
-      <c r="F48" s="21" t="str" cm="1">
-        <f t="array" aca="1" ref="F48:G60" ca="1">_xlfn.STOCKHISTORY(D48,E48,E49,2)</f>
-        <v>Date</v>
-      </c>
-      <c r="G48" s="32" t="str">
-        <f ca="1"/>
-        <v>Close</v>
-      </c>
-    </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C49" s="29"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18">
-        <v>45291</v>
-      </c>
-      <c r="F49" s="17" vm="41">
-        <f ca="1"/>
-        <v>44927</v>
-      </c>
-      <c r="G49" s="30" vm="42">
-        <f ca="1"/>
-        <v>17.489999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C50" s="29"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17" vm="43">
-        <f ca="1"/>
-        <v>44958</v>
-      </c>
-      <c r="G50" s="30" vm="44">
-        <f ca="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C51" s="29"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17" vm="45">
-        <f ca="1"/>
-        <v>44986</v>
-      </c>
-      <c r="G51" s="30" vm="46">
-        <f ca="1"/>
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C52" s="29"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17" vm="47">
-        <f ca="1"/>
-        <v>45017</v>
-      </c>
-      <c r="G52" s="30" vm="48">
-        <f ca="1"/>
-        <v>14.06</v>
-      </c>
-    </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C53" s="29"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17" vm="49">
-        <f ca="1"/>
-        <v>45047</v>
-      </c>
-      <c r="G53" s="30" vm="50">
-        <f ca="1"/>
-        <v>13.56</v>
-      </c>
-    </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C54" s="29"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17" vm="51">
-        <f ca="1"/>
-        <v>45078</v>
-      </c>
-      <c r="G54" s="30" vm="52">
-        <f ca="1"/>
-        <v>13.74</v>
-      </c>
-    </row>
-    <row r="55" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C55" s="29"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17" vm="53">
-        <f ca="1"/>
-        <v>45108</v>
-      </c>
-      <c r="G55" s="30" vm="54">
-        <f ca="1"/>
-        <v>13.77</v>
-      </c>
-    </row>
-    <row r="56" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C56" s="29"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17" vm="55">
-        <f ca="1"/>
-        <v>45139</v>
-      </c>
-      <c r="G56" s="30" vm="56">
-        <f ca="1"/>
-        <v>13.49</v>
-      </c>
-    </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C57" s="29"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17" vm="57">
-        <f ca="1"/>
-        <v>45170</v>
-      </c>
-      <c r="G57" s="30" vm="58">
-        <f ca="1"/>
-        <v>12.97</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C58" s="29"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17" vm="59">
-        <f ca="1"/>
-        <v>45200</v>
-      </c>
-      <c r="G58" s="30" vm="60">
-        <f ca="1"/>
-        <v>12.55</v>
-      </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C59" s="29"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17" vm="61">
-        <f ca="1"/>
-        <v>45231</v>
-      </c>
-      <c r="G59" s="30" vm="46">
-        <f ca="1"/>
-        <v>13.84</v>
-      </c>
-    </row>
-    <row r="60" spans="3:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C60" s="33"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24" vm="9">
-        <f ca="1"/>
-        <v>45261</v>
-      </c>
-      <c r="G60" s="34" vm="62">
+      <c r="G60" s="32" vm="32">
         <f ca="1"/>
         <v>13.9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E4:F4"/>
-  </mergeCells>
   <conditionalFormatting sqref="D8:I14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
